--- a/Doc/bldc_pin.xlsx
+++ b/Doc/bldc_pin.xlsx
@@ -158,7 +158,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>HALL</t>
+    <t>EMF ZERO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -497,7 +497,7 @@
   <dimension ref="A2:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
